--- a/R/2017_10_03_Checked Kusu_Deep (0m to 120m)_newcleaned.xlsx
+++ b/R/2017_10_03_Checked Kusu_Deep (0m to 120m)_newcleaned.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeozy\Documents\Yale-NUS\Y3S1\UROPS\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeozy\Documents\Yale-NUS\Y3S1\UROPS\UROPS\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D4B90065-2B29-403B-9331-2EB926FD72AF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{14AC5CAD-7E9C-413A-8953-6ADDE54EF13A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21268" windowHeight="7266" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Kusu" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Kusu!$A$1:$T$325</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Kusu!$A$1:$T$326</definedName>
   </definedNames>
   <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2518" uniqueCount="1006">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2522" uniqueCount="1005">
   <si>
     <t>Date/Time</t>
   </si>
@@ -2960,9 +2960,6 @@
     <t>5971-5973</t>
   </si>
   <si>
-    <t>Ma</t>
-  </si>
-  <si>
     <t>HYD</t>
   </si>
   <si>
@@ -3084,9 +3081,16 @@
     <numFmt numFmtId="166" formatCode="hh:mm:ss"/>
     <numFmt numFmtId="167" formatCode="0000"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3272,59 +3276,59 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3334,7 +3338,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -3346,143 +3350,147 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel Built-in Explanatory Text" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -8996,12 +9004,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:T328"/>
+  <dimension ref="A1:T329"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="M304" sqref="M304"/>
+      <selection pane="bottomLeft" activeCell="H256" sqref="H256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="16.100000000000001" x14ac:dyDescent="0.35"/>
@@ -9488,10 +9496,10 @@
         <v>920</v>
       </c>
       <c r="L13" s="56" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="M13" s="69" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.35">
@@ -9558,10 +9566,10 @@
         <v>921</v>
       </c>
       <c r="L15" s="56" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="M15" s="70" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.35">
@@ -9685,10 +9693,10 @@
         <v>1937</v>
       </c>
       <c r="K19" s="23" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="L19" s="56" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="M19" s="70" t="s">
         <v>935</v>
@@ -9755,10 +9763,10 @@
         <v>1938</v>
       </c>
       <c r="K21" s="23" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="L21" s="56" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="M21" s="70" t="s">
         <v>935</v>
@@ -9825,10 +9833,10 @@
         <v>1938</v>
       </c>
       <c r="K23" s="23" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="L23" s="56" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="M23" s="70" t="s">
         <v>935</v>
@@ -10385,13 +10393,13 @@
         <v>1943</v>
       </c>
       <c r="K40" s="23" t="s">
+        <v>981</v>
+      </c>
+      <c r="L40" s="56" t="s">
         <v>982</v>
       </c>
-      <c r="L40" s="56" t="s">
-        <v>983</v>
-      </c>
       <c r="M40" s="56" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.35">
@@ -10455,13 +10463,13 @@
         <v>1944</v>
       </c>
       <c r="K42" s="23" t="s">
+        <v>981</v>
+      </c>
+      <c r="L42" s="56" t="s">
         <v>982</v>
       </c>
-      <c r="L42" s="56" t="s">
-        <v>983</v>
-      </c>
       <c r="M42" s="56" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
@@ -10774,13 +10782,13 @@
         <v>925</v>
       </c>
       <c r="K52" s="23" t="s">
+        <v>983</v>
+      </c>
+      <c r="L52" s="58" t="s">
         <v>984</v>
       </c>
-      <c r="L52" s="58" t="s">
-        <v>985</v>
-      </c>
       <c r="M52" s="70" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.35">
@@ -11649,10 +11657,10 @@
         <v>937</v>
       </c>
       <c r="L78" s="26" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="M78" s="26" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.35">
@@ -12043,10 +12051,10 @@
         <v>944</v>
       </c>
       <c r="L89" s="26" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="M89" s="26" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.35">
@@ -12254,7 +12262,7 @@
         <v>950</v>
       </c>
       <c r="M95" s="70" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.35">
@@ -13658,7 +13666,7 @@
         <v>59</v>
       </c>
       <c r="I138" s="18" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.35">
@@ -13721,10 +13729,10 @@
         <v>920</v>
       </c>
       <c r="L140" s="56" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="M140" s="70" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.35">
@@ -13787,10 +13795,10 @@
         <v>913</v>
       </c>
       <c r="L142" s="56" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="M142" s="56" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.35">
@@ -13916,13 +13924,13 @@
         <v>93</v>
       </c>
       <c r="K146" s="53" t="s">
+        <v>989</v>
+      </c>
+      <c r="L146" s="56" t="s">
         <v>990</v>
       </c>
-      <c r="L146" s="56" t="s">
-        <v>991</v>
-      </c>
       <c r="M146" s="56" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.35">
@@ -14036,7 +14044,7 @@
         <v>95</v>
       </c>
       <c r="K150" s="53" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="L150" s="56" t="s">
         <v>935</v>
@@ -14102,7 +14110,7 @@
         <v>95</v>
       </c>
       <c r="K152" s="53" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="L152" s="56" t="s">
         <v>935</v>
@@ -14309,7 +14317,7 @@
         <v>106</v>
       </c>
       <c r="K159" s="53" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="L159" s="56" t="s">
         <v>940</v>
@@ -14376,7 +14384,7 @@
         <v>106</v>
       </c>
       <c r="K161" s="55" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="L161" s="56" t="s">
         <v>940</v>
@@ -14443,7 +14451,7 @@
         <v>107</v>
       </c>
       <c r="K163" s="53" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="L163" s="56" t="s">
         <v>940</v>
@@ -14601,13 +14609,13 @@
         <v>109</v>
       </c>
       <c r="K168" s="55" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="L168" s="57" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="M168" s="57" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.35">
@@ -14719,7 +14727,7 @@
         <v>59</v>
       </c>
       <c r="I172" s="18" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="L172" s="57"/>
     </row>
@@ -14783,10 +14791,10 @@
         <v>910</v>
       </c>
       <c r="L174" s="57" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="M174" s="26" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.35">
@@ -15028,10 +15036,10 @@
         <v>910</v>
       </c>
       <c r="L182" s="56" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="M182" s="26" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.35">
@@ -15094,10 +15102,10 @@
         <v>921</v>
       </c>
       <c r="L184" s="56" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="M184" s="70" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.35">
@@ -15164,10 +15172,10 @@
         <v>910</v>
       </c>
       <c r="L186" s="57" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="M186" s="26" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.35">
@@ -15203,10 +15211,10 @@
         <v>913</v>
       </c>
       <c r="L187" s="56" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="M187" s="56" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.35">
@@ -15385,10 +15393,10 @@
         <v>914</v>
       </c>
       <c r="L193" s="56" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="M193" s="56" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.35">
@@ -15511,10 +15519,10 @@
         <v>909</v>
       </c>
       <c r="L197" s="56" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="M197" s="56" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.35">
@@ -15790,9 +15798,7 @@
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A207" s="40">
-        <v>43011</v>
-      </c>
+      <c r="A207" s="52"/>
       <c r="B207" t="s">
         <v>912</v>
       </c>
@@ -15805,12 +15811,12 @@
       <c r="E207" s="43">
         <v>4</v>
       </c>
-      <c r="F207" s="24">
-        <v>7678</v>
+      <c r="F207" s="72">
+        <v>7500</v>
       </c>
       <c r="G207" s="25">
-        <f t="shared" ref="G207:G222" si="7">F208-F207</f>
-        <v>49</v>
+        <f t="shared" ref="G207:G223" si="7">F208-F207</f>
+        <v>178</v>
       </c>
       <c r="H207" s="23" t="s">
         <v>71</v>
@@ -15836,11 +15842,11 @@
         <v>4</v>
       </c>
       <c r="F208" s="24">
-        <v>7727</v>
+        <v>7678</v>
       </c>
       <c r="G208" s="25">
         <f t="shared" si="7"/>
-        <v>230</v>
+        <v>49</v>
       </c>
       <c r="H208" s="23" t="s">
         <v>908</v>
@@ -15853,10 +15859,10 @@
         <v>958</v>
       </c>
       <c r="L208" s="56" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="M208" s="56" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.35">
@@ -15876,11 +15882,11 @@
         <v>4</v>
       </c>
       <c r="F209" s="24">
-        <v>7957</v>
+        <v>7727</v>
       </c>
       <c r="G209" s="25">
         <f t="shared" si="7"/>
-        <v>24</v>
+        <v>230</v>
       </c>
       <c r="H209" s="23" t="s">
         <v>71</v>
@@ -15906,11 +15912,11 @@
         <v>4</v>
       </c>
       <c r="F210" s="24">
-        <v>7981</v>
+        <v>7957</v>
       </c>
       <c r="G210" s="25">
         <f t="shared" si="7"/>
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="H210" s="23" t="s">
         <v>908</v>
@@ -15946,11 +15952,11 @@
         <v>4</v>
       </c>
       <c r="F211" s="24">
-        <v>8060</v>
+        <v>7981</v>
       </c>
       <c r="G211" s="25">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="H211" s="23" t="s">
         <v>71</v>
@@ -15976,11 +15982,11 @@
         <v>4</v>
       </c>
       <c r="F212" s="24">
-        <v>8071</v>
+        <v>8060</v>
       </c>
       <c r="G212" s="25">
         <f t="shared" si="7"/>
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="H212" s="23" t="s">
         <v>908</v>
@@ -15993,10 +15999,10 @@
         <v>920</v>
       </c>
       <c r="L212" s="56" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="M212" s="69" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.35">
@@ -16016,11 +16022,11 @@
         <v>4</v>
       </c>
       <c r="F213" s="24">
-        <v>8155</v>
+        <v>8071</v>
       </c>
       <c r="G213" s="25">
         <f t="shared" si="7"/>
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="H213" s="23" t="s">
         <v>71</v>
@@ -16046,11 +16052,11 @@
         <v>4</v>
       </c>
       <c r="F214" s="24">
-        <v>8195</v>
+        <v>8155</v>
       </c>
       <c r="G214" s="25">
         <f t="shared" si="7"/>
-        <v>707</v>
+        <v>40</v>
       </c>
       <c r="H214" s="23" t="s">
         <v>53</v>
@@ -16076,11 +16082,11 @@
         <v>4</v>
       </c>
       <c r="F215" s="24">
-        <v>8902</v>
+        <v>8195</v>
       </c>
       <c r="G215" s="25">
         <f t="shared" si="7"/>
-        <v>44</v>
+        <v>707</v>
       </c>
       <c r="H215" s="23" t="s">
         <v>71</v>
@@ -16106,11 +16112,11 @@
         <v>4</v>
       </c>
       <c r="F216" s="24">
-        <v>8946</v>
+        <v>8902</v>
       </c>
       <c r="G216" s="25">
         <f t="shared" si="7"/>
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="H216" s="23" t="s">
         <v>917</v>
@@ -16136,11 +16142,11 @@
         <v>4</v>
       </c>
       <c r="F217" s="24">
-        <v>9009</v>
+        <v>8946</v>
       </c>
       <c r="G217" s="25">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="H217" s="23" t="s">
         <v>71</v>
@@ -16166,11 +16172,11 @@
         <v>4</v>
       </c>
       <c r="F218" s="24">
-        <v>9016</v>
+        <v>9009</v>
       </c>
       <c r="G218" s="25">
         <f t="shared" si="7"/>
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="H218" s="23" t="s">
         <v>908</v>
@@ -16206,11 +16212,11 @@
         <v>4</v>
       </c>
       <c r="F219" s="24">
-        <v>9094</v>
+        <v>9016</v>
       </c>
       <c r="G219" s="25">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="H219" s="23" t="s">
         <v>71</v>
@@ -16236,11 +16242,11 @@
         <v>4</v>
       </c>
       <c r="F220" s="24">
-        <v>9108</v>
+        <v>9094</v>
       </c>
       <c r="G220" s="25">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H220" s="23" t="s">
         <v>59</v>
@@ -16266,11 +16272,11 @@
         <v>4</v>
       </c>
       <c r="F221" s="24">
-        <v>9120</v>
+        <v>9108</v>
       </c>
       <c r="G221" s="25">
         <f t="shared" si="7"/>
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H221" s="23" t="s">
         <v>917</v>
@@ -16296,11 +16302,11 @@
         <v>4</v>
       </c>
       <c r="F222" s="24">
-        <v>9150</v>
+        <v>9120</v>
       </c>
       <c r="G222" s="25">
         <f t="shared" si="7"/>
-        <v>350</v>
+        <v>30</v>
       </c>
       <c r="H222" s="23" t="s">
         <v>908</v>
@@ -16335,10 +16341,13 @@
       <c r="E223" s="43">
         <v>4</v>
       </c>
-      <c r="F223" s="30">
-        <v>9500</v>
-      </c>
-      <c r="G223" s="28"/>
+      <c r="F223" s="24">
+        <v>9150</v>
+      </c>
+      <c r="G223" s="25">
+        <f t="shared" si="7"/>
+        <v>350</v>
+      </c>
       <c r="H223" s="29" t="s">
         <v>71</v>
       </c>
@@ -16347,35 +16356,31 @@
       <c r="K223" s="29"/>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A224" s="45" t="s">
-        <v>960</v>
-      </c>
-      <c r="B224" s="46" t="s">
-        <v>912</v>
-      </c>
-      <c r="C224" s="46" t="s">
-        <v>907</v>
-      </c>
-      <c r="D224" s="46" t="s">
-        <v>961</v>
-      </c>
-      <c r="E224" s="46">
-        <v>5</v>
-      </c>
-      <c r="F224" s="46">
-        <v>10000</v>
-      </c>
-      <c r="G224" s="46">
-        <f t="shared" ref="G224:G255" si="8">F225-F224</f>
-        <v>56</v>
-      </c>
-      <c r="H224" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="I224" s="46"/>
-      <c r="J224" s="46"/>
-      <c r="K224" s="61"/>
-      <c r="L224" s="64"/>
+      <c r="A224" s="40">
+        <v>43011</v>
+      </c>
+      <c r="B224" t="s">
+        <v>912</v>
+      </c>
+      <c r="C224" t="s">
+        <v>907</v>
+      </c>
+      <c r="D224" t="s">
+        <v>959</v>
+      </c>
+      <c r="E224" s="43">
+        <v>4</v>
+      </c>
+      <c r="F224" s="30">
+        <v>9500</v>
+      </c>
+      <c r="G224" s="28"/>
+      <c r="H224" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="I224" s="29"/>
+      <c r="J224" s="29"/>
+      <c r="K224" s="29"/>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A225" s="45" t="s">
@@ -16394,14 +16399,14 @@
         <v>5</v>
       </c>
       <c r="F225" s="46">
-        <v>10056</v>
+        <v>10000</v>
       </c>
       <c r="G225" s="46">
-        <f t="shared" si="8"/>
-        <v>35</v>
+        <f t="shared" ref="G225:G256" si="8">F226-F225</f>
+        <v>56</v>
       </c>
       <c r="H225" s="46" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I225" s="46"/>
       <c r="J225" s="46"/>
@@ -16425,14 +16430,14 @@
         <v>5</v>
       </c>
       <c r="F226" s="46">
-        <v>10091</v>
+        <v>10056</v>
       </c>
       <c r="G226" s="46">
         <f t="shared" si="8"/>
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H226" s="46" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="I226" s="46"/>
       <c r="J226" s="46"/>
@@ -16456,14 +16461,14 @@
         <v>5</v>
       </c>
       <c r="F227" s="46">
-        <v>10116</v>
+        <v>10091</v>
       </c>
       <c r="G227" s="46">
         <f t="shared" si="8"/>
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="H227" s="46" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I227" s="46"/>
       <c r="J227" s="46"/>
@@ -16487,14 +16492,14 @@
         <v>5</v>
       </c>
       <c r="F228" s="46">
-        <v>10172</v>
+        <v>10116</v>
       </c>
       <c r="G228" s="46">
         <f t="shared" si="8"/>
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="H228" s="46" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="I228" s="46"/>
       <c r="J228" s="46"/>
@@ -16518,14 +16523,14 @@
         <v>5</v>
       </c>
       <c r="F229" s="46">
-        <v>10196</v>
+        <v>10172</v>
       </c>
       <c r="G229" s="46">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="H229" s="46" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I229" s="46"/>
       <c r="J229" s="46"/>
@@ -16549,14 +16554,14 @@
         <v>5</v>
       </c>
       <c r="F230" s="46">
-        <v>10205</v>
+        <v>10196</v>
       </c>
       <c r="G230" s="46">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="H230" s="46" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="I230" s="46"/>
       <c r="J230" s="46"/>
@@ -16580,27 +16585,19 @@
         <v>5</v>
       </c>
       <c r="F231" s="46">
-        <v>10214</v>
+        <v>10205</v>
       </c>
       <c r="G231" s="46">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H231" s="46" t="s">
-        <v>908</v>
-      </c>
-      <c r="J231" s="46" t="s">
-        <v>962</v>
-      </c>
-      <c r="K231" s="62" t="s">
-        <v>910</v>
-      </c>
-      <c r="L231" s="64" t="s">
-        <v>963</v>
-      </c>
-      <c r="M231" s="64" t="s">
-        <v>963</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="I231" s="46"/>
+      <c r="J231" s="46"/>
+      <c r="K231" s="61"/>
+      <c r="L231" s="64"/>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A232" s="45" t="s">
@@ -16619,26 +16616,26 @@
         <v>5</v>
       </c>
       <c r="F232" s="46">
-        <v>10221</v>
+        <v>10214</v>
       </c>
       <c r="G232" s="46">
         <f t="shared" si="8"/>
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H232" s="46" t="s">
         <v>908</v>
       </c>
       <c r="J232" s="46" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="K232" s="62" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
       <c r="L232" s="64" t="s">
-        <v>965</v>
-      </c>
-      <c r="M232" s="56" t="s">
-        <v>965</v>
+        <v>963</v>
+      </c>
+      <c r="M232" s="64" t="s">
+        <v>963</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.35">
@@ -16658,19 +16655,26 @@
         <v>5</v>
       </c>
       <c r="F233" s="46">
-        <v>10236</v>
+        <v>10221</v>
       </c>
       <c r="G233" s="46">
         <f t="shared" si="8"/>
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="H233" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="J233" s="46"/>
-      <c r="K233" s="62"/>
+        <v>908</v>
+      </c>
+      <c r="J233" s="46" t="s">
+        <v>964</v>
+      </c>
+      <c r="K233" s="62" t="s">
+        <v>919</v>
+      </c>
       <c r="L233" s="64" t="s">
-        <v>966</v>
+        <v>965</v>
+      </c>
+      <c r="M233" s="56" t="s">
+        <v>965</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.35">
@@ -16690,18 +16694,20 @@
         <v>5</v>
       </c>
       <c r="F234" s="46">
-        <v>10287</v>
+        <v>10236</v>
       </c>
       <c r="G234" s="46">
         <f t="shared" si="8"/>
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="H234" s="46" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="J234" s="46"/>
       <c r="K234" s="62"/>
-      <c r="L234" s="64"/>
+      <c r="L234" s="64" t="s">
+        <v>966</v>
+      </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A235" s="45" t="s">
@@ -16720,14 +16726,14 @@
         <v>5</v>
       </c>
       <c r="F235" s="46">
-        <v>10301</v>
+        <v>10287</v>
       </c>
       <c r="G235" s="46">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H235" s="46" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="J235" s="46"/>
       <c r="K235" s="62"/>
@@ -16750,14 +16756,14 @@
         <v>5</v>
       </c>
       <c r="F236" s="46">
-        <v>10313</v>
+        <v>10301</v>
       </c>
       <c r="G236" s="46">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H236" s="46" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="J236" s="46"/>
       <c r="K236" s="62"/>
@@ -16780,27 +16786,18 @@
         <v>5</v>
       </c>
       <c r="F237" s="46">
-        <v>10321</v>
+        <v>10313</v>
       </c>
       <c r="G237" s="46">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H237" s="46" t="s">
-        <v>908</v>
-      </c>
-      <c r="J237" s="46" t="s">
-        <v>967</v>
-      </c>
-      <c r="K237" s="67" t="s">
-        <v>971</v>
-      </c>
-      <c r="L237" s="64" t="s">
-        <v>996</v>
-      </c>
-      <c r="M237" s="64" t="s">
-        <v>996</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="J237" s="46"/>
+      <c r="K237" s="62"/>
+      <c r="L237" s="64"/>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A238" s="45" t="s">
@@ -16819,18 +16816,27 @@
         <v>5</v>
       </c>
       <c r="F238" s="46">
-        <v>10332</v>
+        <v>10321</v>
       </c>
       <c r="G238" s="46">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H238" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="J238" s="46"/>
-      <c r="K238" s="62"/>
-      <c r="L238" s="64"/>
+        <v>908</v>
+      </c>
+      <c r="J238" s="46" t="s">
+        <v>967</v>
+      </c>
+      <c r="K238" s="67" t="s">
+        <v>970</v>
+      </c>
+      <c r="L238" s="64" t="s">
+        <v>995</v>
+      </c>
+      <c r="M238" s="64" t="s">
+        <v>995</v>
+      </c>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A239" s="45" t="s">
@@ -16849,18 +16855,17 @@
         <v>5</v>
       </c>
       <c r="F239" s="46">
-        <v>10335</v>
+        <v>10332</v>
       </c>
       <c r="G239" s="46">
         <f t="shared" si="8"/>
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="H239" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="I239" s="46"/>
+        <v>55</v>
+      </c>
       <c r="J239" s="46"/>
-      <c r="K239" s="61"/>
+      <c r="K239" s="62"/>
       <c r="L239" s="64"/>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.35">
@@ -16880,14 +16885,14 @@
         <v>5</v>
       </c>
       <c r="F240" s="46">
-        <v>10351</v>
+        <v>10335</v>
       </c>
       <c r="G240" s="46">
         <f t="shared" si="8"/>
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H240" s="46" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="I240" s="46"/>
       <c r="J240" s="46"/>
@@ -16911,14 +16916,14 @@
         <v>5</v>
       </c>
       <c r="F241" s="46">
-        <v>10374</v>
+        <v>10351</v>
       </c>
       <c r="G241" s="46">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="H241" s="46" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="I241" s="46"/>
       <c r="J241" s="46"/>
@@ -16942,14 +16947,14 @@
         <v>5</v>
       </c>
       <c r="F242" s="46">
-        <v>10381</v>
+        <v>10374</v>
       </c>
       <c r="G242" s="46">
         <f t="shared" si="8"/>
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="H242" s="46" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I242" s="46"/>
       <c r="J242" s="46"/>
@@ -16973,14 +16978,14 @@
         <v>5</v>
       </c>
       <c r="F243" s="46">
-        <v>10408</v>
+        <v>10381</v>
       </c>
       <c r="G243" s="46">
         <f t="shared" si="8"/>
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H243" s="46" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="I243" s="46"/>
       <c r="J243" s="46"/>
@@ -17004,14 +17009,14 @@
         <v>5</v>
       </c>
       <c r="F244" s="46">
-        <v>10441</v>
+        <v>10408</v>
       </c>
       <c r="G244" s="46">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="H244" s="46" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="I244" s="46"/>
       <c r="J244" s="46"/>
@@ -17035,14 +17040,14 @@
         <v>5</v>
       </c>
       <c r="F245" s="46">
-        <v>10453</v>
+        <v>10441</v>
       </c>
       <c r="G245" s="46">
         <f t="shared" si="8"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H245" s="46" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I245" s="46"/>
       <c r="J245" s="46"/>
@@ -17066,14 +17071,14 @@
         <v>5</v>
       </c>
       <c r="F246" s="46">
-        <v>10466</v>
+        <v>10453</v>
       </c>
       <c r="G246" s="46">
         <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="H246" s="46" t="s">
-        <v>917</v>
+        <v>71</v>
       </c>
       <c r="I246" s="46"/>
       <c r="J246" s="46"/>
@@ -17097,14 +17102,14 @@
         <v>5</v>
       </c>
       <c r="F247" s="46">
-        <v>10479</v>
+        <v>10466</v>
       </c>
       <c r="G247" s="46">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H247" s="46" t="s">
-        <v>55</v>
+        <v>917</v>
       </c>
       <c r="I247" s="46"/>
       <c r="J247" s="46"/>
@@ -17128,14 +17133,14 @@
         <v>5</v>
       </c>
       <c r="F248" s="46">
-        <v>10491</v>
+        <v>10479</v>
       </c>
       <c r="G248" s="46">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H248" s="46" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="I248" s="46"/>
       <c r="J248" s="46"/>
@@ -17159,14 +17164,14 @@
         <v>5</v>
       </c>
       <c r="F249" s="46">
-        <v>10496</v>
+        <v>10491</v>
       </c>
       <c r="G249" s="46">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H249" s="46" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="I249" s="46"/>
       <c r="J249" s="46"/>
@@ -17190,14 +17195,14 @@
         <v>5</v>
       </c>
       <c r="F250" s="46">
-        <v>10504</v>
+        <v>10496</v>
       </c>
       <c r="G250" s="46">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H250" s="46" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="I250" s="46"/>
       <c r="J250" s="46"/>
@@ -17221,14 +17226,14 @@
         <v>5</v>
       </c>
       <c r="F251" s="46">
-        <v>10510</v>
+        <v>10504</v>
       </c>
       <c r="G251" s="46">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H251" s="46" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="I251" s="46"/>
       <c r="J251" s="46"/>
@@ -17252,14 +17257,14 @@
         <v>5</v>
       </c>
       <c r="F252" s="46">
-        <v>10520</v>
+        <v>10510</v>
       </c>
       <c r="G252" s="46">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H252" s="46" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="I252" s="46"/>
       <c r="J252" s="46"/>
@@ -17283,14 +17288,14 @@
         <v>5</v>
       </c>
       <c r="F253" s="46">
-        <v>10532</v>
+        <v>10520</v>
       </c>
       <c r="G253" s="46">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H253" s="46" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="I253" s="46"/>
       <c r="J253" s="46"/>
@@ -17314,14 +17319,14 @@
         <v>5</v>
       </c>
       <c r="F254" s="46">
-        <v>10541</v>
+        <v>10532</v>
       </c>
       <c r="G254" s="46">
         <f t="shared" si="8"/>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="H254" s="46" t="s">
-        <v>968</v>
+        <v>77</v>
       </c>
       <c r="I254" s="46"/>
       <c r="J254" s="46"/>
@@ -17345,14 +17350,14 @@
         <v>5</v>
       </c>
       <c r="F255" s="46">
-        <v>10558</v>
+        <v>10541</v>
       </c>
       <c r="G255" s="46">
         <f t="shared" si="8"/>
-        <v>12</v>
-      </c>
-      <c r="H255" s="46" t="s">
-        <v>61</v>
+        <v>17</v>
+      </c>
+      <c r="H255" s="73" t="s">
+        <v>65</v>
       </c>
       <c r="I255" s="46"/>
       <c r="J255" s="46"/>
@@ -17376,14 +17381,14 @@
         <v>5</v>
       </c>
       <c r="F256" s="46">
-        <v>10570</v>
+        <v>10558</v>
       </c>
       <c r="G256" s="46">
-        <f t="shared" ref="G256:G287" si="9">F257-F256</f>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="H256" s="46" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I256" s="46"/>
       <c r="J256" s="46"/>
@@ -17407,14 +17412,14 @@
         <v>5</v>
       </c>
       <c r="F257" s="46">
-        <v>10582</v>
+        <v>10570</v>
       </c>
       <c r="G257" s="46">
-        <f t="shared" si="9"/>
-        <v>16</v>
+        <f t="shared" ref="G257:G288" si="9">F258-F257</f>
+        <v>12</v>
       </c>
       <c r="H257" s="46" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I257" s="46"/>
       <c r="J257" s="46"/>
@@ -17438,14 +17443,14 @@
         <v>5</v>
       </c>
       <c r="F258" s="46">
-        <v>10598</v>
+        <v>10582</v>
       </c>
       <c r="G258" s="46">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="H258" s="46" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="I258" s="46"/>
       <c r="J258" s="46"/>
@@ -17469,14 +17474,14 @@
         <v>5</v>
       </c>
       <c r="F259" s="46">
-        <v>10604</v>
+        <v>10598</v>
       </c>
       <c r="G259" s="46">
         <f t="shared" si="9"/>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H259" s="46" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="I259" s="46"/>
       <c r="J259" s="46"/>
@@ -17500,14 +17505,14 @@
         <v>5</v>
       </c>
       <c r="F260" s="46">
-        <v>10620</v>
+        <v>10604</v>
       </c>
       <c r="G260" s="46">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H260" s="46" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="I260" s="46"/>
       <c r="J260" s="46"/>
@@ -17531,14 +17536,14 @@
         <v>5</v>
       </c>
       <c r="F261" s="46">
-        <v>10630</v>
+        <v>10620</v>
       </c>
       <c r="G261" s="46">
         <f t="shared" si="9"/>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H261" s="46" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="I261" s="46"/>
       <c r="J261" s="46"/>
@@ -17562,14 +17567,14 @@
         <v>5</v>
       </c>
       <c r="F262" s="46">
-        <v>10647</v>
+        <v>10630</v>
       </c>
       <c r="G262" s="46">
         <f t="shared" si="9"/>
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="H262" s="46" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="I262" s="46"/>
       <c r="J262" s="46"/>
@@ -17593,14 +17598,14 @@
         <v>5</v>
       </c>
       <c r="F263" s="46">
-        <v>10717</v>
+        <v>10647</v>
       </c>
       <c r="G263" s="46">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="H263" s="46" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="I263" s="46"/>
       <c r="J263" s="46"/>
@@ -17624,14 +17629,14 @@
         <v>5</v>
       </c>
       <c r="F264" s="46">
-        <v>10726</v>
+        <v>10717</v>
       </c>
       <c r="G264" s="46">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H264" s="46" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="I264" s="46"/>
       <c r="J264" s="46"/>
@@ -17655,14 +17660,14 @@
         <v>5</v>
       </c>
       <c r="F265" s="46">
-        <v>10732</v>
+        <v>10726</v>
       </c>
       <c r="G265" s="46">
         <f t="shared" si="9"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H265" s="46" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="I265" s="46"/>
       <c r="J265" s="46"/>
@@ -17686,14 +17691,14 @@
         <v>5</v>
       </c>
       <c r="F266" s="46">
-        <v>10743</v>
+        <v>10732</v>
       </c>
       <c r="G266" s="46">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H266" s="46" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="I266" s="46"/>
       <c r="J266" s="46"/>
@@ -17717,11 +17722,11 @@
         <v>5</v>
       </c>
       <c r="F267" s="46">
-        <v>10753</v>
+        <v>10743</v>
       </c>
       <c r="G267" s="46">
         <f t="shared" si="9"/>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H267" s="46" t="s">
         <v>61</v>
@@ -17748,14 +17753,14 @@
         <v>5</v>
       </c>
       <c r="F268" s="46">
-        <v>10783</v>
+        <v>10753</v>
       </c>
       <c r="G268" s="46">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="H268" s="46" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I268" s="46"/>
       <c r="J268" s="46"/>
@@ -17779,14 +17784,14 @@
         <v>5</v>
       </c>
       <c r="F269" s="46">
-        <v>10789</v>
+        <v>10783</v>
       </c>
       <c r="G269" s="46">
         <f t="shared" si="9"/>
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="H269" s="46" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="I269" s="46"/>
       <c r="J269" s="46"/>
@@ -17810,14 +17815,14 @@
         <v>5</v>
       </c>
       <c r="F270" s="46">
-        <v>10818</v>
+        <v>10789</v>
       </c>
       <c r="G270" s="46">
         <f t="shared" si="9"/>
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H270" s="46" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="I270" s="46"/>
       <c r="J270" s="46"/>
@@ -17841,14 +17846,14 @@
         <v>5</v>
       </c>
       <c r="F271" s="46">
-        <v>10834</v>
+        <v>10818</v>
       </c>
       <c r="G271" s="46">
         <f t="shared" si="9"/>
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H271" s="46" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I271" s="46"/>
       <c r="J271" s="46"/>
@@ -17872,14 +17877,14 @@
         <v>5</v>
       </c>
       <c r="F272" s="46">
-        <v>10857</v>
+        <v>10834</v>
       </c>
       <c r="G272" s="46">
         <f t="shared" si="9"/>
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="H272" s="46" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="I272" s="46"/>
       <c r="J272" s="46"/>
@@ -17903,14 +17908,14 @@
         <v>5</v>
       </c>
       <c r="F273" s="46">
-        <v>10899</v>
+        <v>10857</v>
       </c>
       <c r="G273" s="46">
         <f t="shared" si="9"/>
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="H273" s="46" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="I273" s="46"/>
       <c r="J273" s="46"/>
@@ -17934,14 +17939,14 @@
         <v>5</v>
       </c>
       <c r="F274" s="46">
-        <v>10916</v>
+        <v>10899</v>
       </c>
       <c r="G274" s="46">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="H274" s="46" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="I274" s="46"/>
       <c r="J274" s="46"/>
@@ -17965,14 +17970,14 @@
         <v>5</v>
       </c>
       <c r="F275" s="46">
-        <v>10923</v>
+        <v>10916</v>
       </c>
       <c r="G275" s="46">
         <f t="shared" si="9"/>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="H275" s="46" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="I275" s="46"/>
       <c r="J275" s="46"/>
@@ -17995,20 +18000,20 @@
       <c r="E276" s="46">
         <v>5</v>
       </c>
-      <c r="F276" s="47">
-        <v>10937</v>
+      <c r="F276" s="46">
+        <v>10923</v>
       </c>
       <c r="G276" s="46">
         <f t="shared" si="9"/>
-        <v>41</v>
-      </c>
-      <c r="H276" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="I276" s="47"/>
-      <c r="J276" s="47"/>
-      <c r="K276" s="63"/>
-      <c r="L276" s="65"/>
+        <v>14</v>
+      </c>
+      <c r="H276" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="I276" s="46"/>
+      <c r="J276" s="46"/>
+      <c r="K276" s="61"/>
+      <c r="L276" s="64"/>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A277" s="45" t="s">
@@ -18027,16 +18032,16 @@
         <v>5</v>
       </c>
       <c r="F277" s="47">
-        <v>10978</v>
+        <v>10937</v>
       </c>
       <c r="G277" s="46">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="H277" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="I277" s="46"/>
+        <v>65</v>
+      </c>
+      <c r="I277" s="47"/>
       <c r="J277" s="47"/>
       <c r="K277" s="63"/>
       <c r="L277" s="65"/>
@@ -18058,16 +18063,16 @@
         <v>5</v>
       </c>
       <c r="F278" s="47">
-        <v>10983</v>
+        <v>10978</v>
       </c>
       <c r="G278" s="46">
         <f t="shared" si="9"/>
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="H278" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="I278" s="47"/>
+        <v>55</v>
+      </c>
+      <c r="I278" s="46"/>
       <c r="J278" s="47"/>
       <c r="K278" s="63"/>
       <c r="L278" s="65"/>
@@ -18089,20 +18094,19 @@
         <v>5</v>
       </c>
       <c r="F279" s="47">
-        <v>11001</v>
+        <v>10983</v>
       </c>
       <c r="G279" s="46">
         <f t="shared" si="9"/>
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="H279" s="47" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I279" s="47"/>
       <c r="J279" s="47"/>
       <c r="K279" s="63"/>
       <c r="L279" s="65"/>
-      <c r="M279" s="49"/>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A280" s="45" t="s">
@@ -18121,21 +18125,20 @@
         <v>5</v>
       </c>
       <c r="F280" s="47">
-        <v>11056</v>
+        <v>11001</v>
       </c>
       <c r="G280" s="46">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="H280" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="I280" s="47" t="s">
-        <v>969</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="I280" s="47"/>
       <c r="J280" s="47"/>
       <c r="K280" s="63"/>
       <c r="L280" s="65"/>
+      <c r="M280" s="49"/>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A281" s="45" t="s">
@@ -18154,16 +18157,18 @@
         <v>5</v>
       </c>
       <c r="F281" s="47">
-        <v>11059</v>
+        <v>11056</v>
       </c>
       <c r="G281" s="46">
         <f t="shared" si="9"/>
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="H281" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="I281" s="47"/>
+        <v>59</v>
+      </c>
+      <c r="I281" s="47" t="s">
+        <v>968</v>
+      </c>
       <c r="J281" s="47"/>
       <c r="K281" s="63"/>
       <c r="L281" s="65"/>
@@ -18185,14 +18190,14 @@
         <v>5</v>
       </c>
       <c r="F282" s="47">
-        <v>11085</v>
+        <v>11059</v>
       </c>
       <c r="G282" s="46">
         <f t="shared" si="9"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H282" s="47" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="I282" s="47"/>
       <c r="J282" s="47"/>
@@ -18216,14 +18221,14 @@
         <v>5</v>
       </c>
       <c r="F283" s="47">
-        <v>11112</v>
+        <v>11085</v>
       </c>
       <c r="G283" s="46">
         <f t="shared" si="9"/>
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H283" s="47" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I283" s="47"/>
       <c r="J283" s="47"/>
@@ -18247,14 +18252,14 @@
         <v>5</v>
       </c>
       <c r="F284" s="47">
-        <v>11132</v>
+        <v>11112</v>
       </c>
       <c r="G284" s="46">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H284" s="47" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I284" s="47"/>
       <c r="J284" s="47"/>
@@ -18278,16 +18283,16 @@
         <v>5</v>
       </c>
       <c r="F285" s="47">
-        <v>11147</v>
+        <v>11132</v>
       </c>
       <c r="G285" s="46">
         <f t="shared" si="9"/>
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H285" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="I285" s="46"/>
+        <v>65</v>
+      </c>
+      <c r="I285" s="47"/>
       <c r="J285" s="47"/>
       <c r="K285" s="63"/>
       <c r="L285" s="65"/>
@@ -18309,16 +18314,16 @@
         <v>5</v>
       </c>
       <c r="F286" s="47">
-        <v>11193</v>
+        <v>11147</v>
       </c>
       <c r="G286" s="46">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="H286" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="I286" s="47"/>
+        <v>57</v>
+      </c>
+      <c r="I286" s="46"/>
       <c r="J286" s="47"/>
       <c r="K286" s="63"/>
       <c r="L286" s="65"/>
@@ -18340,27 +18345,19 @@
         <v>5</v>
       </c>
       <c r="F287" s="47">
-        <v>11198</v>
+        <v>11193</v>
       </c>
       <c r="G287" s="46">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H287" s="47" t="s">
-        <v>908</v>
-      </c>
-      <c r="J287" s="47" t="s">
-        <v>970</v>
-      </c>
-      <c r="K287" s="47" t="s">
-        <v>918</v>
-      </c>
-      <c r="L287" s="65" t="s">
-        <v>952</v>
-      </c>
-      <c r="M287" s="56" t="s">
-        <v>952</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="I287" s="47"/>
+      <c r="J287" s="47"/>
+      <c r="K287" s="63"/>
+      <c r="L287" s="65"/>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A288" s="45" t="s">
@@ -18379,23 +18376,29 @@
         <v>5</v>
       </c>
       <c r="F288" s="47">
-        <v>11205</v>
+        <v>11198</v>
       </c>
       <c r="G288" s="46">
-        <f t="shared" ref="G288:G319" si="10">F289-F288</f>
-        <v>21</v>
+        <f t="shared" si="9"/>
+        <v>7</v>
       </c>
       <c r="H288" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="I288" s="47"/>
-      <c r="J288" s="47"/>
-      <c r="K288" s="63"/>
+        <v>908</v>
+      </c>
+      <c r="J288" s="47" t="s">
+        <v>969</v>
+      </c>
+      <c r="K288" s="47" t="s">
+        <v>918</v>
+      </c>
       <c r="L288" s="65" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.35">
+        <v>952</v>
+      </c>
+      <c r="M288" s="56" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A289" s="45" t="s">
         <v>960</v>
       </c>
@@ -18412,21 +18415,23 @@
         <v>5</v>
       </c>
       <c r="F289" s="47">
-        <v>11226</v>
+        <v>11205</v>
       </c>
       <c r="G289" s="46">
-        <f t="shared" si="10"/>
-        <v>12</v>
+        <f t="shared" ref="G289:G320" si="10">F290-F289</f>
+        <v>21</v>
       </c>
       <c r="H289" s="47" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="I289" s="47"/>
       <c r="J289" s="47"/>
       <c r="K289" s="63"/>
-      <c r="L289" s="65"/>
-    </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L289" s="65" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A290" s="45" t="s">
         <v>960</v>
       </c>
@@ -18443,21 +18448,21 @@
         <v>5</v>
       </c>
       <c r="F290" s="47">
-        <v>11238</v>
+        <v>11226</v>
       </c>
       <c r="G290" s="46">
         <f t="shared" si="10"/>
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="H290" s="47" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I290" s="47"/>
       <c r="J290" s="47"/>
       <c r="K290" s="63"/>
       <c r="L290" s="65"/>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A291" s="45" t="s">
         <v>960</v>
       </c>
@@ -18474,21 +18479,21 @@
         <v>5</v>
       </c>
       <c r="F291" s="47">
-        <v>11260</v>
+        <v>11238</v>
       </c>
       <c r="G291" s="46">
         <f t="shared" si="10"/>
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="H291" s="47" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="I291" s="47"/>
       <c r="J291" s="47"/>
       <c r="K291" s="63"/>
       <c r="L291" s="65"/>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A292" s="45" t="s">
         <v>960</v>
       </c>
@@ -18505,21 +18510,21 @@
         <v>5</v>
       </c>
       <c r="F292" s="47">
-        <v>11305</v>
+        <v>11260</v>
       </c>
       <c r="G292" s="46">
         <f t="shared" si="10"/>
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="H292" s="47" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I292" s="47"/>
       <c r="J292" s="47"/>
       <c r="K292" s="63"/>
       <c r="L292" s="65"/>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A293" s="45" t="s">
         <v>960</v>
       </c>
@@ -18536,21 +18541,21 @@
         <v>5</v>
       </c>
       <c r="F293" s="47">
-        <v>11390</v>
+        <v>11305</v>
       </c>
       <c r="G293" s="46">
         <f t="shared" si="10"/>
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="H293" s="47" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="I293" s="47"/>
       <c r="J293" s="47"/>
       <c r="K293" s="63"/>
       <c r="L293" s="65"/>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A294" s="45" t="s">
         <v>960</v>
       </c>
@@ -18567,21 +18572,21 @@
         <v>5</v>
       </c>
       <c r="F294" s="47">
-        <v>11399</v>
+        <v>11390</v>
       </c>
       <c r="G294" s="46">
         <f t="shared" si="10"/>
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="H294" s="47" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I294" s="47"/>
       <c r="J294" s="47"/>
       <c r="K294" s="63"/>
       <c r="L294" s="65"/>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A295" s="45" t="s">
         <v>960</v>
       </c>
@@ -18598,21 +18603,21 @@
         <v>5</v>
       </c>
       <c r="F295" s="47">
-        <v>11438</v>
+        <v>11399</v>
       </c>
       <c r="G295" s="46">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="H295" s="47" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="I295" s="47"/>
       <c r="J295" s="47"/>
       <c r="K295" s="63"/>
       <c r="L295" s="65"/>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A296" s="45" t="s">
         <v>960</v>
       </c>
@@ -18629,21 +18634,21 @@
         <v>5</v>
       </c>
       <c r="F296" s="47">
-        <v>11441</v>
+        <v>11438</v>
       </c>
       <c r="G296" s="46">
         <f t="shared" si="10"/>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H296" s="47" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I296" s="47"/>
       <c r="J296" s="47"/>
       <c r="K296" s="63"/>
       <c r="L296" s="65"/>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A297" s="45" t="s">
         <v>960</v>
       </c>
@@ -18660,21 +18665,21 @@
         <v>5</v>
       </c>
       <c r="F297" s="47">
-        <v>11452</v>
+        <v>11441</v>
       </c>
       <c r="G297" s="46">
         <f t="shared" si="10"/>
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H297" s="47" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="I297" s="47"/>
       <c r="J297" s="47"/>
       <c r="K297" s="63"/>
       <c r="L297" s="65"/>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A298" s="45" t="s">
         <v>960</v>
       </c>
@@ -18691,21 +18696,21 @@
         <v>5</v>
       </c>
       <c r="F298" s="47">
-        <v>11475</v>
+        <v>11452</v>
       </c>
       <c r="G298" s="46">
         <f t="shared" si="10"/>
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H298" s="47" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I298" s="47"/>
       <c r="J298" s="47"/>
       <c r="K298" s="63"/>
       <c r="L298" s="65"/>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A299" s="45" t="s">
         <v>960</v>
       </c>
@@ -18722,21 +18727,21 @@
         <v>5</v>
       </c>
       <c r="F299" s="47">
-        <v>11515</v>
+        <v>11475</v>
       </c>
       <c r="G299" s="46">
         <f t="shared" si="10"/>
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="H299" s="47" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="I299" s="47"/>
       <c r="J299" s="47"/>
       <c r="K299" s="63"/>
       <c r="L299" s="65"/>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A300" s="45" t="s">
         <v>960</v>
       </c>
@@ -18753,21 +18758,21 @@
         <v>5</v>
       </c>
       <c r="F300" s="47">
-        <v>11524</v>
+        <v>11515</v>
       </c>
       <c r="G300" s="46">
         <f t="shared" si="10"/>
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="H300" s="47" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I300" s="47"/>
       <c r="J300" s="47"/>
       <c r="K300" s="63"/>
       <c r="L300" s="65"/>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A301" s="45" t="s">
         <v>960</v>
       </c>
@@ -18784,21 +18789,21 @@
         <v>5</v>
       </c>
       <c r="F301" s="47">
-        <v>11582</v>
+        <v>11524</v>
       </c>
       <c r="G301" s="46">
         <f t="shared" si="10"/>
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="H301" s="47" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="I301" s="47"/>
       <c r="J301" s="47"/>
       <c r="K301" s="63"/>
       <c r="L301" s="65"/>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A302" s="45" t="s">
         <v>960</v>
       </c>
@@ -18815,21 +18820,21 @@
         <v>5</v>
       </c>
       <c r="F302" s="47">
-        <v>11590</v>
+        <v>11582</v>
       </c>
       <c r="G302" s="46">
         <f t="shared" si="10"/>
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="H302" s="47" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I302" s="47"/>
       <c r="J302" s="47"/>
       <c r="K302" s="63"/>
       <c r="L302" s="65"/>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A303" s="45" t="s">
         <v>960</v>
       </c>
@@ -18846,21 +18851,21 @@
         <v>5</v>
       </c>
       <c r="F303" s="47">
-        <v>11620</v>
+        <v>11590</v>
       </c>
       <c r="G303" s="46">
         <f t="shared" si="10"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H303" s="47" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="I303" s="47"/>
       <c r="J303" s="47"/>
       <c r="K303" s="63"/>
       <c r="L303" s="65"/>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A304" s="45" t="s">
         <v>960</v>
       </c>
@@ -18877,28 +18882,19 @@
         <v>5</v>
       </c>
       <c r="F304" s="47">
-        <v>11645</v>
+        <v>11620</v>
       </c>
       <c r="G304" s="46">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="H304" s="47" t="s">
-        <v>908</v>
+        <v>71</v>
       </c>
       <c r="I304" s="47"/>
-      <c r="J304" s="47" t="s">
-        <v>972</v>
-      </c>
-      <c r="K304" s="63" t="s">
-        <v>984</v>
-      </c>
-      <c r="L304" s="65" t="s">
-        <v>997</v>
-      </c>
-      <c r="M304" s="71" t="s">
-        <v>1005</v>
-      </c>
+      <c r="J304" s="47"/>
+      <c r="K304" s="63"/>
+      <c r="L304" s="65"/>
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A305" s="45" t="s">
@@ -18917,19 +18913,28 @@
         <v>5</v>
       </c>
       <c r="F305" s="47">
-        <v>11651</v>
-      </c>
-      <c r="G305" s="50">
+        <v>11645</v>
+      </c>
+      <c r="G305" s="46">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H305" s="47" t="s">
-        <v>71</v>
+        <v>908</v>
       </c>
       <c r="I305" s="47"/>
-      <c r="J305" s="47"/>
-      <c r="K305" s="63"/>
-      <c r="L305" s="65"/>
+      <c r="J305" s="47" t="s">
+        <v>971</v>
+      </c>
+      <c r="K305" s="63" t="s">
+        <v>983</v>
+      </c>
+      <c r="L305" s="65" t="s">
+        <v>996</v>
+      </c>
+      <c r="M305" s="71" t="s">
+        <v>1004</v>
+      </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A306" s="45" t="s">
@@ -18948,14 +18953,14 @@
         <v>5</v>
       </c>
       <c r="F306" s="47">
-        <v>11655</v>
-      </c>
-      <c r="G306" s="46">
+        <v>11651</v>
+      </c>
+      <c r="G306" s="50">
         <f t="shared" si="10"/>
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="H306" s="47" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="I306" s="47"/>
       <c r="J306" s="47"/>
@@ -18979,14 +18984,14 @@
         <v>5</v>
       </c>
       <c r="F307" s="47">
-        <v>11673</v>
+        <v>11655</v>
       </c>
       <c r="G307" s="46">
         <f t="shared" si="10"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H307" s="47" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I307" s="47"/>
       <c r="J307" s="47"/>
@@ -19010,14 +19015,14 @@
         <v>5</v>
       </c>
       <c r="F308" s="47">
-        <v>11692</v>
+        <v>11673</v>
       </c>
       <c r="G308" s="46">
         <f t="shared" si="10"/>
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="H308" s="47" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="I308" s="47"/>
       <c r="J308" s="47"/>
@@ -19041,14 +19046,14 @@
         <v>5</v>
       </c>
       <c r="F309" s="47">
-        <v>11737</v>
+        <v>11692</v>
       </c>
       <c r="G309" s="46">
         <f t="shared" si="10"/>
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="H309" s="47" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I309" s="47"/>
       <c r="J309" s="47"/>
@@ -19072,14 +19077,14 @@
         <v>5</v>
       </c>
       <c r="F310" s="47">
-        <v>11749</v>
+        <v>11737</v>
       </c>
       <c r="G310" s="46">
         <f t="shared" si="10"/>
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="H310" s="47" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I310" s="47"/>
       <c r="J310" s="47"/>
@@ -19103,14 +19108,14 @@
         <v>5</v>
       </c>
       <c r="F311" s="47">
-        <v>11782</v>
+        <v>11749</v>
       </c>
       <c r="G311" s="46">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="H311" s="47" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="I311" s="47"/>
       <c r="J311" s="47"/>
@@ -19134,16 +19139,16 @@
         <v>5</v>
       </c>
       <c r="F312" s="47">
-        <v>11789</v>
+        <v>11782</v>
       </c>
       <c r="G312" s="46">
         <f t="shared" si="10"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H312" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="I312" s="46"/>
+        <v>61</v>
+      </c>
+      <c r="I312" s="47"/>
       <c r="J312" s="47"/>
       <c r="K312" s="63"/>
       <c r="L312" s="65"/>
@@ -19165,18 +19170,16 @@
         <v>5</v>
       </c>
       <c r="F313" s="47">
-        <v>11800</v>
+        <v>11789</v>
       </c>
       <c r="G313" s="46">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H313" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="I313" s="47" t="s">
-        <v>969</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="I313" s="46"/>
       <c r="J313" s="47"/>
       <c r="K313" s="63"/>
       <c r="L313" s="65"/>
@@ -19198,16 +19201,18 @@
         <v>5</v>
       </c>
       <c r="F314" s="47">
-        <v>11807</v>
+        <v>11800</v>
       </c>
       <c r="G314" s="46">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H314" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="I314" s="47"/>
+        <v>59</v>
+      </c>
+      <c r="I314" s="47" t="s">
+        <v>968</v>
+      </c>
       <c r="J314" s="47"/>
       <c r="K314" s="63"/>
       <c r="L314" s="65"/>
@@ -19229,16 +19234,16 @@
         <v>5</v>
       </c>
       <c r="F315" s="47">
-        <v>11813</v>
+        <v>11807</v>
       </c>
       <c r="G315" s="46">
         <f t="shared" si="10"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H315" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="I315" s="46"/>
+        <v>65</v>
+      </c>
+      <c r="I315" s="47"/>
       <c r="J315" s="47"/>
       <c r="K315" s="63"/>
       <c r="L315" s="65"/>
@@ -19260,16 +19265,16 @@
         <v>5</v>
       </c>
       <c r="F316" s="47">
-        <v>11822</v>
+        <v>11813</v>
       </c>
       <c r="G316" s="46">
         <f t="shared" si="10"/>
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="H316" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="I316" s="47"/>
+        <v>55</v>
+      </c>
+      <c r="I316" s="46"/>
       <c r="J316" s="47"/>
       <c r="K316" s="63"/>
       <c r="L316" s="65"/>
@@ -19291,14 +19296,14 @@
         <v>5</v>
       </c>
       <c r="F317" s="47">
-        <v>11843</v>
+        <v>11822</v>
       </c>
       <c r="G317" s="46">
         <f t="shared" si="10"/>
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H317" s="47" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="I317" s="47"/>
       <c r="J317" s="47"/>
@@ -19322,14 +19327,14 @@
         <v>5</v>
       </c>
       <c r="F318" s="47">
-        <v>11871</v>
+        <v>11843</v>
       </c>
       <c r="G318" s="46">
         <f t="shared" si="10"/>
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="H318" s="47" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I318" s="47"/>
       <c r="J318" s="47"/>
@@ -19353,14 +19358,14 @@
         <v>5</v>
       </c>
       <c r="F319" s="47">
-        <v>11885</v>
+        <v>11871</v>
       </c>
       <c r="G319" s="46">
         <f t="shared" si="10"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H319" s="47" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="I319" s="47"/>
       <c r="J319" s="47"/>
@@ -19384,29 +19389,21 @@
         <v>5</v>
       </c>
       <c r="F320" s="47">
-        <v>11901</v>
+        <v>11885</v>
       </c>
       <c r="G320" s="46">
-        <f>F321-F320</f>
-        <v>34</v>
+        <f t="shared" si="10"/>
+        <v>16</v>
       </c>
       <c r="H320" s="47" t="s">
-        <v>908</v>
-      </c>
-      <c r="J320" s="47" t="s">
-        <v>973</v>
-      </c>
-      <c r="K320" s="47" t="s">
-        <v>919</v>
-      </c>
-      <c r="L320" s="65" t="s">
-        <v>974</v>
-      </c>
-      <c r="M320" s="65" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+      <c r="I320" s="47"/>
+      <c r="J320" s="47"/>
+      <c r="K320" s="63"/>
+      <c r="L320" s="65"/>
+    </row>
+    <row r="321" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A321" s="45" t="s">
         <v>960</v>
       </c>
@@ -19423,21 +19420,29 @@
         <v>5</v>
       </c>
       <c r="F321" s="47">
-        <v>11935</v>
+        <v>11901</v>
       </c>
       <c r="G321" s="46">
         <f>F322-F321</f>
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="H321" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="I321" s="47"/>
-      <c r="J321" s="47"/>
-      <c r="K321" s="63"/>
-      <c r="L321" s="65"/>
-    </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.35">
+        <v>908</v>
+      </c>
+      <c r="J321" s="47" t="s">
+        <v>972</v>
+      </c>
+      <c r="K321" s="47" t="s">
+        <v>919</v>
+      </c>
+      <c r="L321" s="65" t="s">
+        <v>973</v>
+      </c>
+      <c r="M321" s="65" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="322" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A322" s="45" t="s">
         <v>960</v>
       </c>
@@ -19454,21 +19459,21 @@
         <v>5</v>
       </c>
       <c r="F322" s="47">
-        <v>11949</v>
+        <v>11935</v>
       </c>
       <c r="G322" s="46">
         <f>F323-F322</f>
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="H322" s="47" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="I322" s="47"/>
       <c r="J322" s="47"/>
       <c r="K322" s="63"/>
       <c r="L322" s="65"/>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A323" s="45" t="s">
         <v>960</v>
       </c>
@@ -19485,21 +19490,21 @@
         <v>5</v>
       </c>
       <c r="F323" s="47">
-        <v>11991</v>
+        <v>11949</v>
       </c>
       <c r="G323" s="46">
         <f>F324-F323</f>
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="H323" s="47" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="I323" s="47"/>
       <c r="J323" s="47"/>
       <c r="K323" s="63"/>
       <c r="L323" s="65"/>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A324" s="45" t="s">
         <v>960</v>
       </c>
@@ -19515,26 +19520,57 @@
       <c r="E324" s="46">
         <v>5</v>
       </c>
-      <c r="F324" s="51">
+      <c r="F324" s="47">
+        <v>11991</v>
+      </c>
+      <c r="G324" s="46">
+        <f>F325-F324</f>
+        <v>9</v>
+      </c>
+      <c r="H324" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="I324" s="47"/>
+      <c r="J324" s="47"/>
+      <c r="K324" s="63"/>
+      <c r="L324" s="65"/>
+    </row>
+    <row r="325" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A325" s="45" t="s">
+        <v>960</v>
+      </c>
+      <c r="B325" s="46" t="s">
+        <v>912</v>
+      </c>
+      <c r="C325" s="46" t="s">
+        <v>907</v>
+      </c>
+      <c r="D325" s="46" t="s">
+        <v>961</v>
+      </c>
+      <c r="E325" s="46">
+        <v>5</v>
+      </c>
+      <c r="F325" s="51">
         <v>12000</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="G325" s="68">
-        <f>SUM(G2:G324)</f>
-        <v>9822</v>
-      </c>
-    </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="G328" s="48"/>
-      <c r="H328" s="48"/>
-      <c r="I328" s="47"/>
-      <c r="J328" s="47"/>
-      <c r="K328" s="63"/>
-      <c r="L328" s="66"/>
+    <row r="326" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G326" s="68">
+        <f>SUM(G2:G325)</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="329" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G329" s="48"/>
+      <c r="H329" s="48"/>
+      <c r="I329" s="47"/>
+      <c r="J329" s="47"/>
+      <c r="K329" s="63"/>
+      <c r="L329" s="66"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T325" xr:uid="{5E18183D-8D75-4DC1-B96A-F024E3ECC6CC}"/>
+  <autoFilter ref="A1:T326" xr:uid="{5E18183D-8D75-4DC1-B96A-F024E3ECC6CC}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
